--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="82">
   <si>
     <t>Profile</t>
   </si>
@@ -116,6 +116,27 @@
     <t>SNOMED CT#897601009</t>
   </si>
   <si>
+    <t>tr-br-breathing-finding-oxygen-saturation-observation</t>
+  </si>
+  <si>
+    <t>Observation of SpO2</t>
+  </si>
+  <si>
+    <t>SNOMED CT#103228002</t>
+  </si>
+  <si>
+    <t>Rangeĵ</t>
+  </si>
+  <si>
+    <t>tr-br-breathing-finding-respiration-rate-observation</t>
+  </si>
+  <si>
+    <t>Observation of Breathing rate</t>
+  </si>
+  <si>
+    <t>SNOMED CT#86290005</t>
+  </si>
+  <si>
     <t>tr-br-rise-observation</t>
   </si>
   <si>
@@ -140,7 +161,19 @@
     <t>SNOMED CT#6442005</t>
   </si>
   <si>
-    <t>tr-c-skin-assessment-observation</t>
+    <t>tr-circulation-cardiac-arrest-observation</t>
+  </si>
+  <si>
+    <t>Cardiac Arrest</t>
+  </si>
+  <si>
+    <t>SNOMED CT#410429000</t>
+  </si>
+  <si>
+    <t>SNOMED CT#45007003</t>
+  </si>
+  <si>
+    <t>tr-circulation-skin-assessment-observation</t>
   </si>
   <si>
     <t>Skin assessment</t>
@@ -156,6 +189,15 @@
   </si>
   <si>
     <t>LOINC#39106-0</t>
+  </si>
+  <si>
+    <t>SNOMED CT#409055009</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>SNOMED CT#50960005</t>
   </si>
   <si>
     <t>tr-d-neuro-fast-observations</t>
@@ -349,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -672,10 +714,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>13</v>
@@ -684,16 +726,16 @@
         <v>13</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>17</v>
@@ -707,10 +749,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>13</v>
@@ -719,16 +761,16 @@
         <v>13</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>17</v>
@@ -745,7 +787,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>13</v>
@@ -754,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>13</v>
@@ -763,7 +805,7 @@
         <v>13</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>17</v>
@@ -777,11 +819,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="C13" t="s" s="2">
         <v>13</v>
       </c>
@@ -789,16 +831,16 @@
         <v>13</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>17</v>
@@ -815,7 +857,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>13</v>
@@ -824,7 +866,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>13</v>
@@ -833,7 +875,7 @@
         <v>13</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>17</v>
@@ -847,10 +889,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>13</v>
@@ -859,16 +901,16 @@
         <v>13</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>17</v>
@@ -885,7 +927,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>13</v>
@@ -894,7 +936,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>13</v>
@@ -903,7 +945,7 @@
         <v>13</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>17</v>
@@ -917,10 +959,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>13</v>
@@ -929,7 +971,7 @@
         <v>13</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>13</v>
@@ -938,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>17</v>
@@ -955,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>13</v>
@@ -964,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>13</v>
@@ -973,7 +1015,7 @@
         <v>13</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>17</v>
@@ -990,7 +1032,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>13</v>
@@ -999,7 +1041,7 @@
         <v>13</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>13</v>
@@ -1008,7 +1050,7 @@
         <v>13</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>17</v>
@@ -1025,7 +1067,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>13</v>
@@ -1034,7 +1076,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>13</v>
@@ -1043,7 +1085,7 @@
         <v>13</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>17</v>
@@ -1060,7 +1102,7 @@
         <v>13</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>13</v>
@@ -1069,7 +1111,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>13</v>
@@ -1078,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>17</v>
@@ -1092,10 +1134,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>13</v>
@@ -1104,16 +1146,16 @@
         <v>13</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>17</v>
@@ -1127,10 +1169,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>13</v>
@@ -1139,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>13</v>
@@ -1148,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>17</v>
@@ -1162,7 +1204,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>63</v>
@@ -1174,16 +1216,16 @@
         <v>13</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>17</v>
@@ -1197,36 +1239,246 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s" s="2">
+      <c r="F25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H25" t="s" s="2">
+      <c r="F26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K25" t="s" s="2">
+      <c r="I28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="89">
   <si>
     <t>Profile</t>
   </si>
@@ -116,6 +116,45 @@
     <t>SNOMED CT#897601009</t>
   </si>
   <si>
+    <t>tr-br-breathing-disorder-of-thorax-observation</t>
+  </si>
+  <si>
+    <t>Disorder of thoracic cavity</t>
+  </si>
+  <si>
+    <t>SNOMED CT#64572001</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>SNOMED CT#12025005</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>SNOMED CT#45508002</t>
+  </si>
+  <si>
+    <t>SNOMED CT#6442005</t>
+  </si>
+  <si>
+    <t>SNOMED CT#65503000</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>SNOMED CT#39180009</t>
+  </si>
+  <si>
+    <t>SNOMED CT#271653008</t>
+  </si>
+  <si>
+    <t>SNOMED CT#13206009</t>
+  </si>
+  <si>
     <t>tr-br-breathing-finding-oxygen-saturation-observation</t>
   </si>
   <si>
@@ -137,28 +176,13 @@
     <t>SNOMED CT#86290005</t>
   </si>
   <si>
-    <t>tr-br-rise-observation</t>
-  </si>
-  <si>
-    <t>Respiratory chest wall movement</t>
-  </si>
-  <si>
-    <t>SNOMED CT#366128006</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
-  </si>
-  <si>
-    <t>SNOMED CT#12025005</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>SNOMED CT#45508002</t>
-  </si>
-  <si>
-    <t>SNOMED CT#6442005</t>
+    <t>tr-circulation-bleeding-control-ps-observation</t>
+  </si>
+  <si>
+    <t>Observation of Pelvic Fracture</t>
+  </si>
+  <si>
+    <t>SNOMED CT#77493009</t>
   </si>
   <si>
     <t>tr-circulation-cardiac-arrest-observation</t>
@@ -192,9 +216,6 @@
   </si>
   <si>
     <t>SNOMED CT#409055009</t>
-  </si>
-  <si>
-    <t>boolean</t>
   </si>
   <si>
     <t>SNOMED CT#50960005</t>
@@ -391,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -714,28 +735,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="F10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>16</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>17</v>
@@ -749,10 +770,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>13</v>
@@ -761,16 +782,16 @@
         <v>13</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>17</v>
@@ -787,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>13</v>
@@ -796,7 +817,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>13</v>
@@ -805,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>17</v>
@@ -822,17 +843,17 @@
         <v>13</v>
       </c>
       <c r="B13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="F13" t="s" s="2">
         <v>13</v>
       </c>
@@ -840,7 +861,7 @@
         <v>13</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>17</v>
@@ -857,7 +878,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>13</v>
@@ -866,7 +887,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>13</v>
@@ -875,7 +896,7 @@
         <v>13</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>17</v>
@@ -889,10 +910,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>13</v>
@@ -901,16 +922,16 @@
         <v>13</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>17</v>
@@ -927,7 +948,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>13</v>
@@ -936,7 +957,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>13</v>
@@ -945,7 +966,7 @@
         <v>13</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>17</v>
@@ -959,10 +980,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>13</v>
@@ -971,7 +992,7 @@
         <v>13</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>13</v>
@@ -980,7 +1001,7 @@
         <v>15</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>17</v>
@@ -994,10 +1015,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>13</v>
@@ -1006,16 +1027,16 @@
         <v>13</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>17</v>
@@ -1029,10 +1050,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>13</v>
@@ -1041,16 +1062,16 @@
         <v>13</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>17</v>
@@ -1064,10 +1085,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>13</v>
@@ -1076,16 +1097,16 @@
         <v>13</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>17</v>
@@ -1102,7 +1123,7 @@
         <v>13</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>13</v>
@@ -1111,7 +1132,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>13</v>
@@ -1120,7 +1141,7 @@
         <v>13</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>17</v>
@@ -1134,10 +1155,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>13</v>
@@ -1146,16 +1167,16 @@
         <v>13</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>17</v>
@@ -1169,10 +1190,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>63</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>13</v>
@@ -1187,10 +1208,10 @@
         <v>13</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>17</v>
@@ -1207,7 +1228,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1225,7 +1246,7 @@
         <v>13</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>17</v>
@@ -1242,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>13</v>
@@ -1260,7 +1281,7 @@
         <v>13</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>17</v>
@@ -1277,7 +1298,7 @@
         <v>13</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>13</v>
@@ -1295,7 +1316,7 @@
         <v>13</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>17</v>
@@ -1312,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>13</v>
@@ -1330,7 +1351,7 @@
         <v>13</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>17</v>
@@ -1344,20 +1365,20 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="C28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="F28" t="s" s="2">
         <v>13</v>
       </c>
@@ -1365,7 +1386,7 @@
         <v>15</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>17</v>
@@ -1379,10 +1400,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>13</v>
@@ -1391,16 +1412,16 @@
         <v>13</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>17</v>
@@ -1414,10 +1435,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>13</v>
@@ -1426,16 +1447,16 @@
         <v>13</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>17</v>
@@ -1449,36 +1470,211 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="F33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s" s="2">
+      <c r="B34" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H31" t="s" s="2">
+      <c r="C34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="I31" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K31" t="s" s="2">
+      <c r="I34" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="106">
   <si>
     <t>Profile</t>
   </si>
@@ -176,6 +176,21 @@
     <t>SNOMED CT#86290005</t>
   </si>
   <si>
+    <t>tr-br-breathing-increased-breathing-effort-observation</t>
+  </si>
+  <si>
+    <t>Increased Breathing Effort</t>
+  </si>
+  <si>
+    <t>SNOMED CT#301820005</t>
+  </si>
+  <si>
+    <t>SNOMED CT#21558008</t>
+  </si>
+  <si>
+    <t>SNOMED CT#271620003</t>
+  </si>
+  <si>
     <t>tr-circulation-bleeding-control-ps-observation</t>
   </si>
   <si>
@@ -197,6 +212,21 @@
     <t>SNOMED CT#45007003</t>
   </si>
   <si>
+    <t>tr-circulation-signs-of-schock-observation</t>
+  </si>
+  <si>
+    <t>Signs of Schock</t>
+  </si>
+  <si>
+    <t>SNOMED CT#27942005</t>
+  </si>
+  <si>
+    <t>SNOMED CT#3424008</t>
+  </si>
+  <si>
+    <t>SNOMED CT#45332005</t>
+  </si>
+  <si>
     <t>tr-circulation-skin-assessment-observation</t>
   </si>
   <si>
@@ -221,7 +251,28 @@
     <t>SNOMED CT#50960005</t>
   </si>
   <si>
-    <t>tr-d-neuro-fast-observations</t>
+    <t>tr-disability-gcs-observation</t>
+  </si>
+  <si>
+    <t>Glasgow Coma Scale</t>
+  </si>
+  <si>
+    <t>LOINC#9269-2</t>
+  </si>
+  <si>
+    <t>integerĵ</t>
+  </si>
+  <si>
+    <t>LOINC#9268-4</t>
+  </si>
+  <si>
+    <t>LOINC#9270-0</t>
+  </si>
+  <si>
+    <t>LOINC#9267-6</t>
+  </si>
+  <si>
+    <t>tr-disability-neuro-fast-observations</t>
   </si>
   <si>
     <t>Fast Assessment</t>
@@ -412,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1085,10 +1136,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>13</v>
@@ -1097,16 +1148,16 @@
         <v>13</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>17</v>
@@ -1123,7 +1174,7 @@
         <v>13</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>13</v>
@@ -1132,7 +1183,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>13</v>
@@ -1155,10 +1206,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>13</v>
@@ -1167,16 +1218,16 @@
         <v>13</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>17</v>
@@ -1193,7 +1244,7 @@
         <v>13</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>13</v>
@@ -1202,7 +1253,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>13</v>
@@ -1211,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>17</v>
@@ -1228,7 +1279,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1237,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>13</v>
@@ -1246,7 +1297,7 @@
         <v>13</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>17</v>
@@ -1260,10 +1311,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>13</v>
@@ -1272,16 +1323,16 @@
         <v>13</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>17</v>
@@ -1295,10 +1346,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>13</v>
@@ -1307,16 +1358,16 @@
         <v>13</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>17</v>
@@ -1333,7 +1384,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>13</v>
@@ -1342,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>13</v>
@@ -1365,10 +1416,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>13</v>
@@ -1377,7 +1428,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>13</v>
@@ -1403,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>13</v>
@@ -1412,7 +1463,7 @@
         <v>13</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>13</v>
@@ -1438,7 +1489,7 @@
         <v>13</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>13</v>
@@ -1447,7 +1498,7 @@
         <v>13</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>13</v>
@@ -1456,7 +1507,7 @@
         <v>13</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>17</v>
@@ -1473,17 +1524,17 @@
         <v>13</v>
       </c>
       <c r="B31" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="F31" t="s" s="2">
         <v>13</v>
       </c>
@@ -1491,7 +1542,7 @@
         <v>13</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>17</v>
@@ -1505,10 +1556,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>13</v>
@@ -1517,16 +1568,16 @@
         <v>13</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>17</v>
@@ -1540,10 +1591,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>13</v>
@@ -1552,16 +1603,16 @@
         <v>13</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>17</v>
@@ -1575,10 +1626,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>13</v>
@@ -1587,16 +1638,16 @@
         <v>13</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>17</v>
@@ -1610,10 +1661,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>13</v>
@@ -1622,16 +1673,16 @@
         <v>13</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>17</v>
@@ -1645,36 +1696,526 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B42" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s" s="2">
+      <c r="C42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F36" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s" s="2">
+      <c r="F42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="I36" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K36" t="s" s="2">
+      <c r="I47" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>13</v>
       </c>
     </row>
